--- a/data-raw/goalkeepers_season_2016.xlsx
+++ b/data-raw/goalkeepers_season_2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Documents/nwslR/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Boston Breakers</t>
   </si>
   <si>
-    <t>Stephanie LabbÃ©</t>
-  </si>
-  <si>
     <t>Washington Spirit</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Kelsey Wys</t>
+  </si>
+  <si>
+    <t>Stephanie Labbé</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1325,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -1334,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2">
         <v>8</v>
@@ -1384,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1443,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1502,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -1559,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1618,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1677,7 +1679,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1736,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
@@ -1795,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1854,10 +1856,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
@@ -1913,7 +1915,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1922,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2">
         <v>12</v>
